--- a/admin/public/excel/en/2019/SDGs-Rating-colors.xlsx
+++ b/admin/public/excel/en/2019/SDGs-Rating-colors.xlsx
@@ -429,7 +429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,16 +799,15 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,95 +866,95 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>99</v>
       </c>
-      <c r="C2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" t="s">
         <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
         <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
         <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
         <v>110</v>
@@ -964,28 +963,28 @@
         <v>113</v>
       </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P3" t="s">
         <v>110</v>
       </c>
       <c r="Q3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
         <v>110</v>
@@ -1029,7 +1028,7 @@
         <v>110</v>
       </c>
       <c r="O4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P4" t="s">
         <v>111</v>
@@ -1044,7 +1043,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>113</v>
       </c>
       <c r="O5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P5" t="s">
         <v>110</v>
@@ -1103,7 +1102,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1147,7 +1146,7 @@
         <v>112</v>
       </c>
       <c r="O6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P6" t="s">
         <v>111</v>
@@ -1162,7 +1161,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1280,192 +1279,192 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" t="s">
+        <v>111</v>
+      </c>
+      <c r="S9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" t="s">
-        <v>113</v>
-      </c>
-      <c r="O9" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" t="s">
-        <v>110</v>
-      </c>
-      <c r="S9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" t="s">
         <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>111</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
         <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>113</v>
+      </c>
+      <c r="R11" t="s">
+        <v>111</v>
+      </c>
+      <c r="S11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" t="s">
-        <v>113</v>
-      </c>
-      <c r="P11" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" t="s">
-        <v>111</v>
-      </c>
-      <c r="S11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
         <v>110</v>
@@ -1477,13 +1476,13 @@
         <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
         <v>110</v>
@@ -1492,16 +1491,16 @@
         <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N12" t="s">
         <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P12" t="s">
         <v>110</v>
@@ -1513,10 +1512,10 @@
         <v>111</v>
       </c>
       <c r="S12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1575,192 +1574,192 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" t="s">
+        <v>110</v>
+      </c>
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>113</v>
+      </c>
+      <c r="R14" t="s">
+        <v>111</v>
+      </c>
+      <c r="S14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" t="s">
-        <v>111</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N15" t="s">
         <v>112</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>113</v>
+      </c>
+      <c r="R15" t="s">
+        <v>111</v>
+      </c>
+      <c r="S15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" t="s">
         <v>112</v>
       </c>
-      <c r="P14" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>113</v>
-      </c>
-      <c r="R14" t="s">
-        <v>111</v>
-      </c>
-      <c r="S14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" t="s">
-        <v>110</v>
-      </c>
-      <c r="K15" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" t="s">
-        <v>110</v>
-      </c>
-      <c r="O15" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>113</v>
-      </c>
-      <c r="R15" t="s">
-        <v>111</v>
-      </c>
-      <c r="S15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="O16" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>110</v>
+      </c>
+      <c r="R16" t="s">
+        <v>111</v>
+      </c>
+      <c r="S16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
         <v>100</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>101</v>
       </c>
-      <c r="C16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" t="s">
-        <v>113</v>
-      </c>
-      <c r="O16" t="s">
-        <v>112</v>
-      </c>
-      <c r="P16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>110</v>
-      </c>
-      <c r="R16" t="s">
-        <v>111</v>
-      </c>
-      <c r="S16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
         <v>111</v>
@@ -1769,7 +1768,7 @@
         <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" t="s">
         <v>110</v>
@@ -1781,19 +1780,19 @@
         <v>111</v>
       </c>
       <c r="J17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s">
         <v>111</v>
       </c>
       <c r="L17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O17" t="s">
         <v>112</v>
@@ -1808,10 +1807,10 @@
         <v>111</v>
       </c>
       <c r="S17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1840,7 +1839,7 @@
         <v>110</v>
       </c>
       <c r="J18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K18" t="s">
         <v>110</v>
@@ -1870,7 +1869,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P20" t="s">
         <v>114</v>
@@ -1988,7 +1987,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>111</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K21" t="s">
         <v>111</v>
@@ -2032,7 +2031,7 @@
         <v>113</v>
       </c>
       <c r="O21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P21" t="s">
         <v>114</v>
@@ -2047,7 +2046,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2091,7 +2090,7 @@
         <v>113</v>
       </c>
       <c r="O22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P22" t="s">
         <v>114</v>
@@ -2106,7 +2105,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2135,7 +2134,7 @@
         <v>111</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23" t="s">
         <v>111</v>
@@ -2150,7 +2149,7 @@
         <v>110</v>
       </c>
       <c r="O23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P23" t="s">
         <v>114</v>
@@ -2165,12 +2164,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
         <v>111</v>
@@ -2185,10 +2184,10 @@
         <v>111</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I24" t="s">
         <v>111</v>
@@ -2203,7 +2202,7 @@
         <v>110</v>
       </c>
       <c r="M24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N24" t="s">
         <v>112</v>
@@ -2212,384 +2211,384 @@
         <v>112</v>
       </c>
       <c r="P24" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>113</v>
+      </c>
+      <c r="R24" t="s">
+        <v>111</v>
+      </c>
+      <c r="S24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" t="s">
+        <v>111</v>
+      </c>
+      <c r="M25" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" t="s">
+        <v>113</v>
+      </c>
+      <c r="O25" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" t="s">
         <v>114</v>
       </c>
-      <c r="Q24" t="s">
-        <v>110</v>
-      </c>
-      <c r="R24" t="s">
-        <v>110</v>
-      </c>
-      <c r="S24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" t="s">
-        <v>111</v>
-      </c>
-      <c r="J25" t="s">
-        <v>113</v>
-      </c>
-      <c r="K25" t="s">
-        <v>111</v>
-      </c>
-      <c r="L25" t="s">
-        <v>110</v>
-      </c>
-      <c r="M25" t="s">
-        <v>111</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="Q25" t="s">
+        <v>113</v>
+      </c>
+      <c r="R25" t="s">
+        <v>111</v>
+      </c>
+      <c r="S25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" t="s">
+        <v>111</v>
+      </c>
+      <c r="L26" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" t="s">
+        <v>110</v>
+      </c>
+      <c r="N26" t="s">
         <v>112</v>
       </c>
-      <c r="O25" t="s">
-        <v>112</v>
-      </c>
-      <c r="P25" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>113</v>
-      </c>
-      <c r="R25" t="s">
-        <v>111</v>
-      </c>
-      <c r="S25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" t="s">
-        <v>110</v>
-      </c>
-      <c r="I26" t="s">
-        <v>110</v>
-      </c>
-      <c r="J26" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" t="s">
-        <v>111</v>
-      </c>
-      <c r="L26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M26" t="s">
-        <v>110</v>
-      </c>
-      <c r="N26" t="s">
-        <v>113</v>
-      </c>
       <c r="O26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P26" t="s">
         <v>114</v>
       </c>
       <c r="Q26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27" t="s">
+        <v>111</v>
+      </c>
+      <c r="N27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" t="s">
+        <v>113</v>
+      </c>
+      <c r="P27" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27" t="s">
+        <v>110</v>
+      </c>
+      <c r="S27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" t="s">
-        <v>113</v>
-      </c>
-      <c r="K27" t="s">
-        <v>111</v>
-      </c>
-      <c r="L27" t="s">
-        <v>113</v>
-      </c>
-      <c r="M27" t="s">
-        <v>111</v>
-      </c>
-      <c r="N27" t="s">
-        <v>113</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" t="s">
+        <v>111</v>
+      </c>
+      <c r="L28" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" t="s">
+        <v>111</v>
+      </c>
+      <c r="N28" t="s">
+        <v>113</v>
+      </c>
+      <c r="O28" t="s">
         <v>112</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P28" t="s">
         <v>114</v>
       </c>
-      <c r="Q27" t="s">
-        <v>113</v>
-      </c>
-      <c r="R27" t="s">
-        <v>111</v>
-      </c>
-      <c r="S27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="Q28" t="s">
+        <v>113</v>
+      </c>
+      <c r="R28" t="s">
+        <v>111</v>
+      </c>
+      <c r="S28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>113</v>
+      </c>
+      <c r="R29" t="s">
+        <v>111</v>
+      </c>
+      <c r="S29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L30" t="s">
+        <v>110</v>
+      </c>
+      <c r="M30" t="s">
+        <v>111</v>
+      </c>
+      <c r="N30" t="s">
+        <v>112</v>
+      </c>
+      <c r="O30" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>113</v>
+      </c>
+      <c r="R30" t="s">
+        <v>111</v>
+      </c>
+      <c r="S30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" t="s">
-        <v>110</v>
-      </c>
-      <c r="K28" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" t="s">
-        <v>110</v>
-      </c>
-      <c r="M28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N28" t="s">
-        <v>113</v>
-      </c>
-      <c r="O28" t="s">
-        <v>113</v>
-      </c>
-      <c r="P28" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>110</v>
-      </c>
-      <c r="R28" t="s">
-        <v>111</v>
-      </c>
-      <c r="S28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" t="s">
-        <v>110</v>
-      </c>
-      <c r="K29" t="s">
-        <v>111</v>
-      </c>
-      <c r="L29" t="s">
-        <v>113</v>
-      </c>
-      <c r="M29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N29" t="s">
-        <v>112</v>
-      </c>
-      <c r="O29" t="s">
-        <v>112</v>
-      </c>
-      <c r="P29" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>113</v>
-      </c>
-      <c r="R29" t="s">
-        <v>110</v>
-      </c>
-      <c r="S29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" t="s">
-        <v>110</v>
-      </c>
-      <c r="H30" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" t="s">
-        <v>110</v>
-      </c>
-      <c r="K30" t="s">
-        <v>111</v>
-      </c>
-      <c r="L30" t="s">
-        <v>110</v>
-      </c>
-      <c r="M30" t="s">
-        <v>111</v>
-      </c>
-      <c r="N30" t="s">
-        <v>113</v>
-      </c>
-      <c r="O30" t="s">
-        <v>113</v>
-      </c>
-      <c r="P30" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>113</v>
-      </c>
-      <c r="R30" t="s">
-        <v>111</v>
-      </c>
-      <c r="S30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
       <c r="C31" t="s">
         <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
         <v>111</v>
@@ -2607,7 +2606,7 @@
         <v>111</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K31" t="s">
         <v>111</v>
@@ -2616,28 +2615,28 @@
         <v>110</v>
       </c>
       <c r="M31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R31" t="s">
         <v>111</v>
       </c>
       <c r="S31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>111</v>
       </c>
       <c r="J33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K33" t="s">
         <v>111</v>
@@ -2755,7 +2754,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>113</v>
       </c>
       <c r="O34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P34" t="s">
         <v>114</v>
@@ -2814,7 +2813,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2873,15 +2872,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
         <v>111</v>
@@ -2890,25 +2889,25 @@
         <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H36" t="s">
         <v>111</v>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K36" t="s">
         <v>111</v>
       </c>
       <c r="L36" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M36" t="s">
         <v>111</v>
@@ -2917,13 +2916,13 @@
         <v>113</v>
       </c>
       <c r="O36" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P36" t="s">
         <v>111</v>
       </c>
       <c r="Q36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R36" t="s">
         <v>111</v>
@@ -2932,15 +2931,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
         <v>111</v>
@@ -2967,16 +2966,16 @@
         <v>111</v>
       </c>
       <c r="L37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M37" t="s">
         <v>111</v>
       </c>
       <c r="N37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P37" t="s">
         <v>111</v>
@@ -2988,10 +2987,10 @@
         <v>111</v>
       </c>
       <c r="S37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>113</v>
       </c>
       <c r="O38" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P38" t="s">
         <v>111</v>
@@ -3050,12 +3049,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
         <v>110</v>
@@ -3067,19 +3066,19 @@
         <v>111</v>
       </c>
       <c r="F39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H39" t="s">
         <v>111</v>
       </c>
       <c r="I39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K39" t="s">
         <v>111</v>
@@ -3091,25 +3090,25 @@
         <v>111</v>
       </c>
       <c r="N39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P39" t="s">
         <v>111</v>
       </c>
       <c r="Q39" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="R39" t="s">
         <v>111</v>
       </c>
       <c r="S39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>111</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K41" t="s">
         <v>111</v>
@@ -3212,302 +3211,302 @@
         <v>113</v>
       </c>
       <c r="O41" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>110</v>
+      </c>
+      <c r="R41" t="s">
+        <v>111</v>
+      </c>
+      <c r="S41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" t="s">
+        <v>110</v>
+      </c>
+      <c r="I42" t="s">
+        <v>110</v>
+      </c>
+      <c r="J42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" t="s">
+        <v>111</v>
+      </c>
+      <c r="L42" t="s">
+        <v>110</v>
+      </c>
+      <c r="M42" t="s">
+        <v>110</v>
+      </c>
+      <c r="N42" t="s">
+        <v>113</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>110</v>
+      </c>
+      <c r="R42" t="s">
+        <v>111</v>
+      </c>
+      <c r="S42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" t="s">
+        <v>110</v>
+      </c>
+      <c r="J43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K43" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" t="s">
+        <v>113</v>
+      </c>
+      <c r="M43" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" t="s">
+        <v>110</v>
+      </c>
+      <c r="O43" t="s">
+        <v>110</v>
+      </c>
+      <c r="P43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>113</v>
+      </c>
+      <c r="R43" t="s">
+        <v>111</v>
+      </c>
+      <c r="S43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" t="s">
+        <v>111</v>
+      </c>
+      <c r="J44" t="s">
+        <v>111</v>
+      </c>
+      <c r="K44" t="s">
+        <v>111</v>
+      </c>
+      <c r="L44" t="s">
+        <v>110</v>
+      </c>
+      <c r="M44" t="s">
+        <v>111</v>
+      </c>
+      <c r="N44" t="s">
+        <v>113</v>
+      </c>
+      <c r="O44" t="s">
+        <v>113</v>
+      </c>
+      <c r="P44" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>113</v>
+      </c>
+      <c r="R44" t="s">
+        <v>111</v>
+      </c>
+      <c r="S44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" t="s">
+        <v>111</v>
+      </c>
+      <c r="J45" t="s">
+        <v>111</v>
+      </c>
+      <c r="K45" t="s">
+        <v>111</v>
+      </c>
+      <c r="L45" t="s">
+        <v>110</v>
+      </c>
+      <c r="M45" t="s">
+        <v>110</v>
+      </c>
+      <c r="N45" t="s">
+        <v>113</v>
+      </c>
+      <c r="O45" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>110</v>
+      </c>
+      <c r="R45" t="s">
+        <v>111</v>
+      </c>
+      <c r="S45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" t="s">
+        <v>110</v>
+      </c>
+      <c r="K46" t="s">
+        <v>111</v>
+      </c>
+      <c r="L46" t="s">
+        <v>110</v>
+      </c>
+      <c r="M46" t="s">
+        <v>111</v>
+      </c>
+      <c r="N46" t="s">
         <v>112</v>
       </c>
-      <c r="P41" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>110</v>
-      </c>
-      <c r="R41" t="s">
-        <v>111</v>
-      </c>
-      <c r="S41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" t="s">
-        <v>110</v>
-      </c>
-      <c r="K42" t="s">
-        <v>111</v>
-      </c>
-      <c r="L42" t="s">
-        <v>110</v>
-      </c>
-      <c r="M42" t="s">
-        <v>111</v>
-      </c>
-      <c r="N42" t="s">
-        <v>113</v>
-      </c>
-      <c r="O42" t="s">
-        <v>113</v>
-      </c>
-      <c r="P42" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>113</v>
-      </c>
-      <c r="R42" t="s">
-        <v>111</v>
-      </c>
-      <c r="S42" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F43" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" t="s">
-        <v>111</v>
-      </c>
-      <c r="H43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" t="s">
-        <v>110</v>
-      </c>
-      <c r="J43" t="s">
-        <v>110</v>
-      </c>
-      <c r="K43" t="s">
-        <v>111</v>
-      </c>
-      <c r="L43" t="s">
-        <v>110</v>
-      </c>
-      <c r="M43" t="s">
-        <v>110</v>
-      </c>
-      <c r="N43" t="s">
-        <v>113</v>
-      </c>
-      <c r="O43" t="s">
-        <v>112</v>
-      </c>
-      <c r="P43" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>110</v>
-      </c>
-      <c r="R43" t="s">
-        <v>111</v>
-      </c>
-      <c r="S43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E44" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" t="s">
-        <v>111</v>
-      </c>
-      <c r="I44" t="s">
-        <v>110</v>
-      </c>
-      <c r="J44" t="s">
-        <v>110</v>
-      </c>
-      <c r="K44" t="s">
-        <v>111</v>
-      </c>
-      <c r="L44" t="s">
-        <v>113</v>
-      </c>
-      <c r="M44" t="s">
-        <v>111</v>
-      </c>
-      <c r="N44" t="s">
-        <v>110</v>
-      </c>
-      <c r="O44" t="s">
-        <v>113</v>
-      </c>
-      <c r="P44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>113</v>
-      </c>
-      <c r="R44" t="s">
-        <v>111</v>
-      </c>
-      <c r="S44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45" t="s">
-        <v>111</v>
-      </c>
-      <c r="H45" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" t="s">
-        <v>111</v>
-      </c>
-      <c r="J45" t="s">
-        <v>110</v>
-      </c>
-      <c r="K45" t="s">
-        <v>111</v>
-      </c>
-      <c r="L45" t="s">
-        <v>110</v>
-      </c>
-      <c r="M45" t="s">
-        <v>111</v>
-      </c>
-      <c r="N45" t="s">
-        <v>112</v>
-      </c>
-      <c r="O45" t="s">
-        <v>112</v>
-      </c>
-      <c r="P45" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>110</v>
-      </c>
-      <c r="R45" t="s">
-        <v>111</v>
-      </c>
-      <c r="S45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" t="s">
-        <v>111</v>
-      </c>
-      <c r="E46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46" t="s">
-        <v>110</v>
-      </c>
-      <c r="G46" t="s">
-        <v>111</v>
-      </c>
-      <c r="H46" t="s">
-        <v>111</v>
-      </c>
-      <c r="I46" t="s">
-        <v>111</v>
-      </c>
-      <c r="J46" t="s">
-        <v>110</v>
-      </c>
-      <c r="K46" t="s">
-        <v>111</v>
-      </c>
-      <c r="L46" t="s">
-        <v>110</v>
-      </c>
-      <c r="M46" t="s">
-        <v>110</v>
-      </c>
-      <c r="N46" t="s">
-        <v>113</v>
-      </c>
       <c r="O46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P46" t="s">
         <v>110</v>
@@ -3519,21 +3518,21 @@
         <v>111</v>
       </c>
       <c r="S46" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
         <v>111</v>
@@ -3560,16 +3559,16 @@
         <v>114</v>
       </c>
       <c r="M47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N47" t="s">
         <v>110</v>
       </c>
       <c r="O47" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q47" t="s">
         <v>113</v>
@@ -3581,18 +3580,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
         <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
         <v>111</v>
@@ -3619,16 +3618,16 @@
         <v>114</v>
       </c>
       <c r="M48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N48" t="s">
         <v>110</v>
       </c>
       <c r="O48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q48" t="s">
         <v>113</v>
@@ -3640,7 +3639,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>111</v>
       </c>
       <c r="J49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K49" t="s">
         <v>111</v>
@@ -3699,7 +3698,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -3743,7 +3742,7 @@
         <v>114</v>
       </c>
       <c r="O50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P50" t="s">
         <v>111</v>
@@ -3758,7 +3757,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>113</v>
       </c>
       <c r="O51" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P51" t="s">
         <v>114</v>
@@ -3817,7 +3816,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -3905,7 +3904,7 @@
         <v>111</v>
       </c>
       <c r="J53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K53" t="s">
         <v>111</v>
@@ -3920,7 +3919,7 @@
         <v>114</v>
       </c>
       <c r="O53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P53" t="s">
         <v>114</v>
@@ -3935,7 +3934,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" t="s">
         <v>92</v>
       </c>
